--- a/feature_analysis/Jupiter Notebooks/y_vals.xlsx
+++ b/feature_analysis/Jupiter Notebooks/y_vals.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,24 +467,24 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>67485</v>
+        <v>63104</v>
       </c>
       <c r="B2" t="n">
-        <v>0.993920972644377</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cjudzm</t>
+          <t>b6uiz7</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -492,49 +492,49 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>73478</v>
+        <v>73758</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001949317738791423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cmkl5l</t>
+          <t>bd0ww1</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>1024</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>75397</v>
+        <v>88611</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.9443005181347151</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bs50ps</t>
+          <t>blexov</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -542,24 +542,24 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>77392</v>
+        <v>93218</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>bt8mm5</t>
+          <t>aos6vn</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -567,24 +567,24 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>78951</v>
+        <v>110547</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bu2kf5</t>
+          <t>b1cbcz</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -592,24 +592,24 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>125250</v>
+        <v>118566</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>dn6075</t>
+          <t>bs50ps</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -617,24 +617,24 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>179645</v>
+        <v>120561</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>eq3k7y</t>
+          <t>bt8mm5</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -642,24 +642,24 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>238045</v>
+        <v>122120</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mj8a47</t>
+          <t>bu2kf5</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -667,24 +667,24 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>264862</v>
+        <v>173147</v>
       </c>
       <c r="B10" t="n">
+        <v>0.9848942598187311</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>cjudzm</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>652</v>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>kcf1e0</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -692,21 +692,21 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>313429</v>
+        <v>179140</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>b6uiz7</t>
+          <t>cmkl5l</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -717,24 +717,24 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>324083</v>
+        <v>235318</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>bd0ww1</t>
+          <t>eq3k7y</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1024</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -742,24 +742,24 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>338936</v>
+        <v>243383</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9553805774278216</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>blexov</t>
+          <t>dn6075</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>728</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -767,24 +767,24 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>354632</v>
+        <v>327023</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>b1cbcz</t>
+          <t>gcmhy1</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -792,49 +792,49 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>374492</v>
+        <v>327289</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01162790697674419</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>aos6vn</t>
+          <t>gcti52</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>476998</v>
+        <v>333569</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gcmhy1</t>
+          <t>ggyb2v</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -842,49 +842,49 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>477264</v>
+        <v>390156</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gcti52</t>
+          <t>hql2q4</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>542</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>483544</v>
+        <v>395386</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ggyb2v</t>
+          <t>hv6xro</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -892,71 +892,71 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>519719</v>
+        <v>499908</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7058823529411765</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>j0do3l</t>
+          <t>mj8a47</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>571565</v>
+        <v>525794</v>
       </c>
       <c r="B20" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>j0do3l</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>hql2q4</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>582</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>576795</v>
+        <v>557973</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>hv6xro</t>
+          <t>kcf1e0</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>

--- a/feature_analysis/Jupiter Notebooks/y_vals.xlsx
+++ b/feature_analysis/Jupiter Notebooks/y_vals.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -495,7 +495,7 @@
         <v>73758</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001949317738791423</v>
+        <v>0.00186046511627907</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         <v>1024</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -520,7 +520,7 @@
         <v>88611</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9443005181347151</v>
+        <v>0.9448717948717948</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         <v>41</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -545,7 +545,7 @@
         <v>93218</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01176470588235294</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>163</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>69</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>173147</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9848942598187311</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -687,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">

--- a/feature_analysis/Jupiter Notebooks/y_vals.xlsx
+++ b/feature_analysis/Jupiter Notebooks/y_vals.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,99 +467,99 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>63104</v>
+        <v>261</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>b6uiz7</t>
+          <t>cjudzm</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>73758</v>
+        <v>6254</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00186046511627907</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bd0ww1</t>
+          <t>cmkl5l</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1024</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>88611</v>
+        <v>70530</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9448717948717948</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>blexov</t>
+          <t>dn6075</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>729</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>93218</v>
+        <v>137405</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01162790697674419</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>aos6vn</t>
+          <t>eq3k7y</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -567,32 +567,32 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>110547</v>
+        <v>166473</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.9448717948717948</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>b1cbcz</t>
+          <t>blexov</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="E6" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>118566</v>
+        <v>177693</v>
       </c>
       <c r="B7" t="n">
         <v>0.0303030303030303</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>120561</v>
+        <v>179688</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>122120</v>
+        <v>181247</v>
       </c>
       <c r="B9" t="n">
         <v>0.6666666666666666</v>
@@ -667,46 +667,46 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>173147</v>
+        <v>256829</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cjudzm</t>
+          <t>j0do3l</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>655</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>179140</v>
+        <v>307758</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cmkl5l</t>
+          <t>kcf1e0</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -717,24 +717,24 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>235318</v>
+        <v>346351</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>eq3k7y</t>
+          <t>aos6vn</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -742,24 +742,24 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>243383</v>
+        <v>363680</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dn6075</t>
+          <t>b1cbcz</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -767,21 +767,21 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>327023</v>
+        <v>372466</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gcmhy1</t>
+          <t>b6uiz7</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -792,49 +792,49 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>327289</v>
+        <v>383120</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.00186046511627907</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gcti52</t>
+          <t>bd0ww1</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>1024</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G15" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>333569</v>
+        <v>441866</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ggyb2v</t>
+          <t>gcmhy1</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -842,49 +842,49 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>390156</v>
+        <v>442132</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>hql2q4</t>
+          <t>gcti52</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>582</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>395386</v>
+        <v>448412</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hv6xro</t>
+          <t>ggyb2v</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -892,74 +892,74 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>499908</v>
+        <v>505007</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>mj8a47</t>
+          <t>hql2q4</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>525794</v>
+        <v>510237</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7058823529411765</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>j0do3l</t>
+          <t>hv6xro</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>557973</v>
+        <v>574905</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>kcf1e0</t>
+          <t>mj8a47</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>

--- a/feature_analysis/Jupiter Notebooks/y_vals.xlsx
+++ b/feature_analysis/Jupiter Notebooks/y_vals.xlsx
@@ -467,99 +467,99 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>63104</v>
+        <v>261</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>b6uiz7</t>
+          <t>cjudzm</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>73758</v>
+        <v>6254</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00186046511627907</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bd0ww1</t>
+          <t>cmkl5l</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1024</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>88611</v>
+        <v>70530</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9448717948717948</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>blexov</t>
+          <t>dn6075</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>729</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>93218</v>
+        <v>137405</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01162790697674419</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>aos6vn</t>
+          <t>eq3k7y</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -567,32 +567,32 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>110547</v>
+        <v>166473</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.9448717948717948</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>b1cbcz</t>
+          <t>blexov</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="E6" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>118566</v>
+        <v>177693</v>
       </c>
       <c r="B7" t="n">
         <v>0.0303030303030303</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>120561</v>
+        <v>179688</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>122120</v>
+        <v>181247</v>
       </c>
       <c r="B9" t="n">
         <v>0.6666666666666666</v>
@@ -667,46 +667,46 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>173147</v>
+        <v>256829</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cjudzm</t>
+          <t>j0do3l</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>655</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>179140</v>
+        <v>307758</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cmkl5l</t>
+          <t>kcf1e0</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -717,24 +717,24 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>235318</v>
+        <v>346351</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>eq3k7y</t>
+          <t>aos6vn</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -742,24 +742,24 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>243383</v>
+        <v>363680</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dn6075</t>
+          <t>b1cbcz</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -767,21 +767,21 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>327023</v>
+        <v>372466</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gcmhy1</t>
+          <t>b6uiz7</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -792,49 +792,49 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>327289</v>
+        <v>383120</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.00186046511627907</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gcti52</t>
+          <t>bd0ww1</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>1024</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G15" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>333569</v>
+        <v>441866</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ggyb2v</t>
+          <t>gcmhy1</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -842,49 +842,49 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>390156</v>
+        <v>442132</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>hql2q4</t>
+          <t>gcti52</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>582</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>395386</v>
+        <v>448412</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hv6xro</t>
+          <t>ggyb2v</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -892,74 +892,74 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>499908</v>
+        <v>505007</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>mj8a47</t>
+          <t>hql2q4</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>525794</v>
+        <v>510237</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7058823529411765</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>j0do3l</t>
+          <t>hv6xro</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>557973</v>
+        <v>574905</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>kcf1e0</t>
+          <t>mj8a47</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
